--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F8C964-4927-47F8-99AC-5B86F7AD6C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18D7917-F262-4073-A3C8-15BF6B0F55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01D11B3F-EAF8-4F12-ADE1-4D7034513359}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EAFF822-2C39-4221-A508-178A35A531AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>79,45%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,7 +200,7 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>5,88%</t>
@@ -209,25 +209,25 @@
     <t>4,83%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -236,7 +236,7 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>2,25%</t>
@@ -245,61 +245,61 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,166 +308,178 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>6,76%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
     <t>3,19%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>7,81%</t>
@@ -479,28 +491,28 @@
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273BFE9D-C99B-42C5-A6CE-9BA3211AFC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB7211-000F-4EA4-A55E-E55D98CF078B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1571,10 +1583,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -1583,13 +1595,13 @@
         <v>62088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,10 +1619,10 @@
         <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -1619,13 +1631,13 @@
         <v>18447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -1634,13 +1646,13 @@
         <v>30895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1667,13 @@
         <v>43881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -1670,13 +1682,13 @@
         <v>55967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -1685,13 +1697,13 @@
         <v>99848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1718,13 @@
         <v>590887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>827</v>
@@ -1721,13 +1733,13 @@
         <v>603207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1418</v>
@@ -1736,13 +1748,13 @@
         <v>1194095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1822,13 @@
         <v>174036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>532</v>
@@ -1825,13 +1837,13 @@
         <v>342698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>735</v>
@@ -1840,13 +1852,13 @@
         <v>516734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1873,13 @@
         <v>65441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>229</v>
@@ -1876,13 +1888,13 @@
         <v>137488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
@@ -1891,13 +1903,13 @@
         <v>202929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,28 +1924,28 @@
         <v>223700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>581</v>
       </c>
       <c r="I21" s="7">
-        <v>336244</v>
+        <v>336245</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>834</v>
@@ -1942,13 +1954,13 @@
         <v>559944</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,28 +1975,28 @@
         <v>2911370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>4007</v>
       </c>
       <c r="I22" s="7">
-        <v>2978886</v>
+        <v>2978887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>6834</v>
@@ -1993,13 +2005,13 @@
         <v>5890257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2038,7 @@
         <v>5349</v>
       </c>
       <c r="I23" s="7">
-        <v>3795316</v>
+        <v>3795317</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2055,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18D7917-F262-4073-A3C8-15BF6B0F55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C8CC78-C15A-48D1-9F56-DFB0E9688542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EAFF822-2C39-4221-A508-178A35A531AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43239076-1CFE-47E1-B336-5F4301A9ED62}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB7211-000F-4EA4-A55E-E55D98CF078B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E246613-04B6-4167-8C18-0DA8B58D78A8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C8CC78-C15A-48D1-9F56-DFB0E9688542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EF3508-3144-4F2E-89BB-3C5ED2F48DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43239076-1CFE-47E1-B336-5F4301A9ED62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{688EC605-958A-4BB6-9398-6F959D300835}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>79,45%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,7 +200,7 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>5,88%</t>
@@ -209,25 +209,25 @@
     <t>4,83%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>6,88%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -236,7 +236,7 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>3,48%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>2,25%</t>
@@ -245,274 +245,262 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,44%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>87,47%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E246613-04B6-4167-8C18-0DA8B58D78A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EE624-98A1-4A53-8B40-9FBCDE8CDCA8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,10 +1571,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -1595,13 +1583,13 @@
         <v>62088</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,10 +1607,10 @@
         <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -1631,13 +1619,13 @@
         <v>18447</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -1646,13 +1634,13 @@
         <v>30895</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1655,13 @@
         <v>43881</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -1682,13 +1670,13 @@
         <v>55967</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -1697,13 +1685,13 @@
         <v>99848</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1706,13 @@
         <v>590887</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>827</v>
@@ -1733,13 +1721,13 @@
         <v>603207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1418</v>
@@ -1748,13 +1736,13 @@
         <v>1194095</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1810,13 @@
         <v>174036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>532</v>
@@ -1837,13 +1825,13 @@
         <v>342698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>735</v>
@@ -1852,13 +1840,13 @@
         <v>516734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1861,13 @@
         <v>65441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>229</v>
@@ -1888,13 +1876,13 @@
         <v>137488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
@@ -1903,13 +1891,13 @@
         <v>202929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,28 +1912,28 @@
         <v>223700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>581</v>
       </c>
       <c r="I21" s="7">
-        <v>336245</v>
+        <v>336244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>834</v>
@@ -1954,13 +1942,13 @@
         <v>559944</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,28 +1963,28 @@
         <v>2911370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>4007</v>
       </c>
       <c r="I22" s="7">
-        <v>2978887</v>
+        <v>2978886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>6834</v>
@@ -2005,13 +1993,13 @@
         <v>5890257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2026,7 @@
         <v>5349</v>
       </c>
       <c r="I23" s="7">
-        <v>3795317</v>
+        <v>3795316</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EF3508-3144-4F2E-89BB-3C5ED2F48DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC7906C-16DC-446A-BCE5-87FDDA11EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{688EC605-958A-4BB6-9398-6F959D300835}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F4B754BD-7EA6-4B4D-93C4-8868CEF29731}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,436 +71,442 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EE624-98A1-4A53-8B40-9FBCDE8CDCA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AA10D0-3F0C-450A-9224-558D2CC9A970}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1042,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>64712</v>
+        <v>58683</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1051,7 +1057,7 @@
         <v>280</v>
       </c>
       <c r="I4" s="7">
-        <v>174191</v>
+        <v>151964</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1066,7 +1072,7 @@
         <v>364</v>
       </c>
       <c r="N4" s="7">
-        <v>238903</v>
+        <v>210647</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1087,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>17107</v>
+        <v>15417</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1102,7 +1108,7 @@
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>55615</v>
+        <v>48976</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1117,7 +1123,7 @@
         <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>72722</v>
+        <v>64393</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1138,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>29284</v>
+        <v>27172</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1153,7 +1159,7 @@
         <v>138</v>
       </c>
       <c r="I6" s="7">
-        <v>76885</v>
+        <v>69107</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1168,7 +1174,7 @@
         <v>172</v>
       </c>
       <c r="N6" s="7">
-        <v>106169</v>
+        <v>96280</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1189,7 +1195,7 @@
         <v>548</v>
       </c>
       <c r="D7" s="7">
-        <v>429460</v>
+        <v>412670</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1204,7 +1210,7 @@
         <v>911</v>
       </c>
       <c r="I7" s="7">
-        <v>525875</v>
+        <v>482555</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1219,7 +1225,7 @@
         <v>1459</v>
       </c>
       <c r="N7" s="7">
-        <v>955336</v>
+        <v>895224</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1240,7 +1246,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1255,7 +1261,7 @@
         <v>1425</v>
       </c>
       <c r="I8" s="7">
-        <v>832566</v>
+        <v>752603</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1270,7 +1276,7 @@
         <v>2115</v>
       </c>
       <c r="N8" s="7">
-        <v>1373129</v>
+        <v>1266544</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1293,7 +1299,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>83501</v>
+        <v>75992</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1302,37 +1308,37 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>198</v>
       </c>
       <c r="I9" s="7">
-        <v>132242</v>
+        <v>118678</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>291</v>
       </c>
       <c r="N9" s="7">
-        <v>215743</v>
+        <v>194670</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,46 +1350,46 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>35886</v>
+        <v>32938</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>63426</v>
+        <v>57122</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
       </c>
       <c r="N10" s="7">
-        <v>99312</v>
+        <v>90060</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,46 +1401,46 @@
         <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>150535</v>
+        <v>139256</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>350</v>
       </c>
       <c r="I11" s="7">
-        <v>203393</v>
+        <v>184821</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>520</v>
       </c>
       <c r="N11" s="7">
-        <v>353928</v>
+        <v>324077</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,46 +1452,46 @@
         <v>1688</v>
       </c>
       <c r="D12" s="7">
-        <v>1891023</v>
+        <v>2041111</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>2269</v>
       </c>
       <c r="I12" s="7">
-        <v>1849803</v>
+        <v>1876612</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>3957</v>
       </c>
       <c r="N12" s="7">
-        <v>3740826</v>
+        <v>3917724</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,7 +1503,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1512,7 +1518,7 @@
         <v>2920</v>
       </c>
       <c r="I13" s="7">
-        <v>2248864</v>
+        <v>2237233</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1533,7 @@
         <v>4911</v>
       </c>
       <c r="N13" s="7">
-        <v>4409809</v>
+        <v>4526531</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,28 +1556,28 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>25823</v>
+        <v>23975</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>36265</v>
+        <v>32719</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -1580,7 +1586,7 @@
         <v>80</v>
       </c>
       <c r="N14" s="7">
-        <v>62088</v>
+        <v>56694</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1601,46 +1607,46 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>12448</v>
+        <v>11911</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>18447</v>
+        <v>16899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
       </c>
       <c r="N15" s="7">
-        <v>30895</v>
+        <v>28810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,46 +1658,46 @@
         <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>43881</v>
+        <v>41207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>55967</v>
+        <v>51231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>99848</v>
+        <v>92438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,46 +1709,46 @@
         <v>591</v>
       </c>
       <c r="D17" s="7">
-        <v>590887</v>
+        <v>569530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>827</v>
       </c>
       <c r="I17" s="7">
-        <v>603207</v>
+        <v>559614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1418</v>
       </c>
       <c r="N17" s="7">
-        <v>1194095</v>
+        <v>1129144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1760,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1769,7 +1775,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1790,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1807,46 +1813,46 @@
         <v>203</v>
       </c>
       <c r="D19" s="7">
-        <v>174036</v>
+        <v>158650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>532</v>
       </c>
       <c r="I19" s="7">
-        <v>342698</v>
+        <v>303362</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>735</v>
       </c>
       <c r="N19" s="7">
-        <v>516734</v>
+        <v>462011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,46 +1864,46 @@
         <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>65441</v>
+        <v>60266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>229</v>
       </c>
       <c r="I20" s="7">
-        <v>137488</v>
+        <v>122996</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>308</v>
       </c>
       <c r="N20" s="7">
-        <v>202929</v>
+        <v>183262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,46 +1915,46 @@
         <v>253</v>
       </c>
       <c r="D21" s="7">
-        <v>223700</v>
+        <v>207635</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>581</v>
       </c>
       <c r="I21" s="7">
-        <v>336244</v>
+        <v>305160</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>834</v>
       </c>
       <c r="N21" s="7">
-        <v>559944</v>
+        <v>512795</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +1966,46 @@
         <v>2827</v>
       </c>
       <c r="D22" s="7">
-        <v>2911370</v>
+        <v>3023312</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>4007</v>
       </c>
       <c r="I22" s="7">
-        <v>2978886</v>
+        <v>2918782</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>6834</v>
       </c>
       <c r="N22" s="7">
-        <v>5890257</v>
+        <v>5942093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3374547</v>
+        <v>3449863</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2026,7 +2032,7 @@
         <v>5349</v>
       </c>
       <c r="I23" s="7">
-        <v>3795316</v>
+        <v>3650299</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2041,7 +2047,7 @@
         <v>8711</v>
       </c>
       <c r="N23" s="7">
-        <v>7169864</v>
+        <v>7100161</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que toma algún remedio para dormir (no medicamentos) en 2023</t>
+          <t>Población según la frecuencia con la que toma algún remedio para dormir (no medicamentos) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
